--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1022,366 +1022,366 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3102,208 +3102,208 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G97" s="2" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5650,158 +5650,158 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>AirSense</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>7</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -7314,780 +7314,780 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
+      <c r="F147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10226,210 +10226,210 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="D189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>exceeds</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
+      <c r="I191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>12</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>exceeds</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>2</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G191" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I191" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K191" t="b">
-        <v>1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>12</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>3</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K192" t="b">
-        <v>1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11162,262 +11162,262 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>13</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>13</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>13</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>2</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>13</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>3</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>13</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>4</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12150,314 +12150,314 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,161 +12873,161 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="F277" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G277" s="2" t="b">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="L277" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -14958,260 +14958,260 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="F284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E291" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K291" t="b">
-        <v>1</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J291" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K292" t="b">
-        <v>1</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="E293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" t="b">
-        <v>1</v>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K293" t="b">
-        <v>1</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="G293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16154,416 +16154,416 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" t="n">
         <v>19</v>
       </c>
-      <c r="B303" s="2" t="inlineStr">
+      <c r="B303" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C303" s="2" t="inlineStr">
+      <c r="C303" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D303" s="2" t="n">
+      <c r="D303" t="n">
         <v>8</v>
       </c>
-      <c r="E303" s="2" t="inlineStr">
+      <c r="E303" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F303" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G303" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L303" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G303" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" t="b">
+        <v>1</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K303" t="b">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" t="n">
         <v>19</v>
       </c>
-      <c r="B304" s="2" t="inlineStr">
+      <c r="B304" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C304" s="2" t="inlineStr">
+      <c r="C304" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D304" s="2" t="n">
+      <c r="D304" t="n">
         <v>9</v>
       </c>
-      <c r="E304" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G304" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L304" s="2" t="inlineStr">
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" t="b">
+        <v>1</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K304" t="b">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" t="n">
         <v>19</v>
       </c>
-      <c r="B305" s="2" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C305" s="2" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D305" s="2" t="n">
+      <c r="D305" t="n">
         <v>10</v>
       </c>
-      <c r="E305" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L305" s="2" t="inlineStr">
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G305" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K305" t="b">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" t="n">
         <v>19</v>
       </c>
-      <c r="B306" s="2" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C306" s="2" t="inlineStr">
+      <c r="C306" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D306" s="2" t="n">
+      <c r="D306" t="n">
         <v>11</v>
       </c>
-      <c r="E306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L306" s="2" t="inlineStr">
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K306" t="b">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" t="n">
         <v>19</v>
       </c>
-      <c r="B307" s="2" t="inlineStr">
+      <c r="B307" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C307" s="2" t="inlineStr">
+      <c r="C307" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D307" s="2" t="n">
+      <c r="D307" t="n">
         <v>12</v>
       </c>
-      <c r="E307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L307" s="2" t="inlineStr">
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K307" t="b">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" t="n">
         <v>19</v>
       </c>
-      <c r="B308" s="2" t="inlineStr">
+      <c r="B308" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C308" s="2" t="inlineStr">
+      <c r="C308" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D308" s="2" t="n">
+      <c r="D308" t="n">
         <v>13</v>
       </c>
-      <c r="E308" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L308" s="2" t="inlineStr">
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" t="b">
+        <v>1</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K308" t="b">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" t="n">
         <v>19</v>
       </c>
-      <c r="B309" s="2" t="inlineStr">
+      <c r="B309" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C309" s="2" t="inlineStr">
+      <c r="C309" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D309" s="2" t="n">
+      <c r="D309" t="n">
         <v>14</v>
       </c>
-      <c r="E309" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F309" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G309" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L309" s="2" t="inlineStr">
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K309" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" t="n">
         <v>19</v>
       </c>
-      <c r="B310" s="2" t="inlineStr">
+      <c r="B310" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C310" s="2" t="inlineStr">
+      <c r="C310" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D310" s="2" t="n">
+      <c r="D310" t="n">
         <v>15</v>
       </c>
-      <c r="E310" s="2" t="inlineStr">
+      <c r="E310" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F310" s="2" t="inlineStr">
+      <c r="F310" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H310" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L310" s="2" t="inlineStr">
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I310" t="b">
+        <v>1</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K310" t="b">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1022,366 +1022,366 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Restart</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Restart</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3102,208 +3102,208 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G97" s="2" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5650,158 +5650,158 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>7</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>AirSense</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>7</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>7</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>2</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7314,780 +7314,780 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10226,210 +10226,210 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>12</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>12</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" t="n">
         <v>12</v>
       </c>
-      <c r="B191" s="2" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C191" s="2" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>exceeds</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" t="n">
         <v>2</v>
       </c>
-      <c r="E191" s="2" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F191" s="2" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G191" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" s="2" t="inlineStr">
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L191" s="2" t="inlineStr">
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K191" t="b">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" t="n">
         <v>12</v>
       </c>
-      <c r="B192" s="2" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" t="n">
         <v>3</v>
       </c>
-      <c r="E192" s="2" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F192" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" s="2" t="inlineStr">
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L192" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11162,262 +11162,262 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="inlineStr">
+      <c r="D207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F211" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>13</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>2</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>13</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>3</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>13</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>4</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12150,314 +12150,314 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>14</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>6</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>14</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>7</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>14</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>8</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>14</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>9</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>14</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>10</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>14</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>11</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,161 +12873,161 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>15</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>7</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>15</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>8</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" t="n">
         <v>15</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" t="n">
         <v>9</v>
       </c>
-      <c r="E242" s="2" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" s="2" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" s="2" t="inlineStr">
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="F277" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G277" s="2" t="b">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="L277" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14958,260 +14958,260 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>17</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>17</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>17</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>17</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>17</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" s="2" t="inlineStr">
+      <c r="F284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" t="n">
         <v>18</v>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" t="n">
         <v>5</v>
       </c>
-      <c r="E291" s="2" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G291" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L291" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" t="n">
         <v>18</v>
       </c>
-      <c r="B292" s="2" t="inlineStr">
+      <c r="B292" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C292" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
+      <c r="D292" t="n">
         <v>6</v>
       </c>
-      <c r="E292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L292" s="2" t="inlineStr">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" t="n">
         <v>18</v>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
+      <c r="D293" t="n">
         <v>7</v>
       </c>
-      <c r="E293" s="2" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" s="2" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L293" s="2" t="inlineStr">
+      <c r="G293" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16154,416 +16154,416 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C303" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D303" t="n">
+      <c r="D303" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="E303" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G303" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" t="b">
-        <v>1</v>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K303" t="b">
-        <v>1</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J303" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D304" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" t="b">
-        <v>1</v>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K304" t="b">
-        <v>1</v>
-      </c>
-      <c r="L304" t="inlineStr">
+      <c r="E304" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G304" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J304" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L304" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B305" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C305" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D305" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" t="b">
-        <v>1</v>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K305" t="b">
-        <v>1</v>
-      </c>
-      <c r="L305" t="inlineStr">
+      <c r="E305" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G305" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J305" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B306" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C306" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D306" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" t="b">
-        <v>1</v>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K306" t="b">
-        <v>1</v>
-      </c>
-      <c r="L306" t="inlineStr">
+      <c r="E306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J306" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L306" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B307" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C307" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D307" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" t="b">
-        <v>1</v>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K307" t="b">
-        <v>1</v>
-      </c>
-      <c r="L307" t="inlineStr">
+      <c r="E307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J307" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L307" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D308" t="n">
+      <c r="D308" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G308" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" t="b">
-        <v>1</v>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K308" t="b">
-        <v>1</v>
-      </c>
-      <c r="L308" t="inlineStr">
+      <c r="E308" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J308" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L308" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="B309" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
+      <c r="C309" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D309" t="n">
+      <c r="D309" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G309" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" t="b">
-        <v>1</v>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K309" t="b">
-        <v>1</v>
-      </c>
-      <c r="L309" t="inlineStr">
+      <c r="E309" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F309" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G309" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L309" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B310" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C310" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D310" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E310" t="inlineStr">
+      <c r="E310" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
+      <c r="F310" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G310" t="b">
-        <v>1</v>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I310" t="b">
-        <v>1</v>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K310" t="b">
-        <v>1</v>
-      </c>
-      <c r="L310" t="inlineStr">
+      <c r="G310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J310" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L310" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
